--- a/docs/Audit-SEO-LaChouetteAgence.xlsx
+++ b/docs/Audit-SEO-LaChouetteAgence.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cleme\Documents\DEV\lachouetteagence\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31AEDDC-5F86-41D8-858D-74297777578C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADBB6A3-1EB5-4968-BCB9-1E0E27F5DFE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="105">
   <si>
     <t>Catégorie</t>
   </si>
@@ -76,22 +76,7 @@
     <t>LightHouse Desktop</t>
   </si>
   <si>
-    <t>https://lachouetteagence.301dev.com/analyse/LightHouse-Mobile.html</t>
-  </si>
-  <si>
-    <t>https://lachouetteagence.301dev.com/analyse/LightHouse-Desktop.html</t>
-  </si>
-  <si>
     <t>Performances : 89 Accessibilité : 84 Bonnes Pratiques : 87 SEO : 71</t>
-  </si>
-  <si>
-    <t>SiteChecker.pro</t>
-  </si>
-  <si>
-    <t>https://lachouetteagence.301dev.com/analyse/sitechecker.pdf</t>
-  </si>
-  <si>
-    <t>Page Audit : 53 / 100</t>
   </si>
   <si>
     <t>Analyse après modification</t>
@@ -330,6 +315,39 @@
   </si>
   <si>
     <t>✔️</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/speed/pagespeed/insights/?hl=fr&amp;url=lachouetteagence.301dev.com&amp;tab=desktop</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/speed/pagespeed/insights/?hl=fr&amp;url=lachouetteagence.301dev.com&amp;tab=mobile</t>
+  </si>
+  <si>
+    <t>Performances : 100</t>
+  </si>
+  <si>
+    <t>Performances : 96</t>
+  </si>
+  <si>
+    <t>https://lachouetteagence.301dev.com/analyse/LightHouse-Desktop-before.html</t>
+  </si>
+  <si>
+    <t>https://lachouetteagence.301dev.com/analyse/LightHouse-Mobile-before.html</t>
+  </si>
+  <si>
+    <t>https://lachouetteagence.301dev.com/analyse/LightHouse-Desktop-after.html</t>
+  </si>
+  <si>
+    <t>LightHouse Mobile</t>
+  </si>
+  <si>
+    <t>https://lachouetteagence.301dev.com/analyse/LightHouse-Mobile-after.html</t>
+  </si>
+  <si>
+    <t>Performances : 95 Accessibilité : 88 Bonnes Pratiques : 93 SEO : 98</t>
+  </si>
+  <si>
+    <t>Performances : 98 Accessibilité : 85 Bonnes Pratiques : 93 SEO : 100</t>
   </si>
 </sst>
 </file>
@@ -713,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -747,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -771,341 +789,347 @@
     </row>
     <row r="2" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>77</v>
+        <v>72</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="D7" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>93</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2114,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{763A57FE-E349-4710-9B47-A301D047B954}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2129,7 +2153,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -2165,7 +2189,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
@@ -2173,60 +2197,68 @@
     </row>
     <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
+      <c r="A6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>101</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2268,10 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{A65B068E-64AF-4389-94CA-D6AA578137BC}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{12309589-4CF4-4733-8CF5-D893685FD00C}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{6137AF6B-9B72-4D06-8AA8-60FCA8224904}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{696F9777-2CDD-4DE8-BD12-E7B936903596}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{B6B2C68F-F374-4900-8EDE-15E4AA2F5ACE}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{C7EF40FF-83E8-4914-89A4-77D7D7E41D83}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{60BE5224-551F-4DEC-8346-F2E7323D4D58}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{E0E048CE-0878-48A3-BFCA-EE3ABFDD2003}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
